--- a/bugs_list/测试单-万年历.xlsx
+++ b/bugs_list/测试单-万年历.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="784" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="301">
   <si>
     <t>编号</t>
   </si>
@@ -1204,31 +1204,6 @@
   </si>
   <si>
     <t>查看提醒、删除列表列表：字串“开”“关”=》改为“开启”“关闭”二个字的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>按【菜单】键进入功能菜单，画面更新明显</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滞后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语音播报。都已经播报完“功能菜单”后才更新画面。调出功能菜单的速度太慢。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1979,60 +1954,6 @@
   </si>
   <si>
     <r>
-      <t>提醒时间到后，有时可以弹出“行程提醒”播放界面，但</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有声音出来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。而且此</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>播放界面不会自动消掉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。（此为12月12日上午测试现象）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【12月27日版】存在</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">语音提醒设置界面：时间设置后按返回的提示字串“退出前是否保存数据”=》统一改为“退出前保存”
 </t>
     </r>
@@ -2171,126 +2092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语音提醒界面，按【返回】键退出时的判断需</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增加时间判断</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-有录音文件，但提醒时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>早于当前时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。按返回键仍保存成功。（而当时间设置完保存时，若时间早于当前时间，则会不能保存成功的）
-=》按返回退出语音提醒界面时，应该弹出提示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>弹出对话框“设置时间早于当前时间，是否重新设置”。选“是”则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">反显定位到时间行上；选“否”则放弃，不保存退出。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【12月27日版】存在</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>录音：录音过程中，按【返回】键不论选择是否保存，都会覆盖保存。=》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择不保存，没起作用。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【12月27日版】存在</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动生成文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2412,10 +2213,6 @@
       </rPr>
       <t>【12月27日版】存在</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2626,13 +2423,256 @@
   </si>
   <si>
     <t>复检。新增编号80~92。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按【菜单】键进入功能菜单，画面更新明显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滞后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语音播报。都已经播报完“功能菜单”后才更新画面。调出功能菜单的速度太慢。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里应该是电子书接收到消息停止发音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提醒时间到后，有时可以弹出“行程提醒”播放界面，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有声音出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。而且此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放界面不会自动消掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（此为12月12日上午测试现象）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【12月27日版】存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音同上。黑屏应该是系统问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加年显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>录音：录音过程中，按【返回】键不论选择是否保存，都会覆盖保存。=》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择不保存，没起作用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【12月27日版】存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语音提醒界面，按【返回】键退出时的判断需</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加时间判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+有录音文件，但提醒时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早于当前时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。按返回键仍保存成功。（而当时间设置完保存时，若时间早于当前时间，则会不能保存成功的）
+=》按返回退出语音提醒界面时，应该弹出提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弹出对话框“设置时间早于当前时间，是否重新设置”。选“是”则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">反显定位到时间行上；选“否”则放弃，不保存退出。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【12月27日版】存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在录音机中修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -2845,7 +2885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3049,6 +3089,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="3" tint="0.39991454817346722"/>
+      </left>
+      <right style="hair">
+        <color theme="3" tint="0.39991454817346722"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3270,7 +3321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3916,6 +3967,18 @@
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -3994,17 +4057,7 @@
     <cellStyle name="常规 4 2" xfId="71"/>
     <cellStyle name="常规 6" xfId="13"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4027,11 +4080,16 @@
       <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4105,6 +4163,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4139,6 +4198,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4314,7 +4374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4465,7 +4525,7 @@
         <v>42716</v>
       </c>
       <c r="F8" s="143" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" s="139"/>
     </row>
@@ -4484,7 +4544,7 @@
         <v>42731</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G9" s="139"/>
     </row>
@@ -4565,7 +4625,7 @@
     </row>
     <row r="21" spans="2:6" ht="175.5">
       <c r="F21" s="172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4619,7 +4679,7 @@
         <v>115</v>
       </c>
       <c r="F31" s="142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="27">
@@ -4630,7 +4690,7 @@
         <v>117</v>
       </c>
       <c r="F32" s="142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="94.5">
@@ -4638,10 +4698,10 @@
         <v>64</v>
       </c>
       <c r="E33" s="165" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="142" t="s">
         <v>220</v>
-      </c>
-      <c r="F33" s="142" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="34" spans="4:6" ht="40.5">
@@ -4663,7 +4723,7 @@
         <v>170</v>
       </c>
       <c r="F35" s="166" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="54">
@@ -4674,7 +4734,7 @@
         <v>170</v>
       </c>
       <c r="F36" s="166" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="40.5">
@@ -4685,7 +4745,7 @@
         <v>174</v>
       </c>
       <c r="F37" s="166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="40.5">
@@ -4696,7 +4756,7 @@
         <v>174</v>
       </c>
       <c r="F38" s="166" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="27">
@@ -4707,7 +4767,7 @@
         <v>170</v>
       </c>
       <c r="F39" s="166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="27">
@@ -4715,7 +4775,7 @@
         <v>74</v>
       </c>
       <c r="E40" s="165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F40" s="166" t="s">
         <v>182</v>
@@ -4739,7 +4799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q95"/>
   <sheetViews>
@@ -4747,7 +4807,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomRight" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4777,7 +4837,7 @@
       <c r="O1" s="186"/>
       <c r="P1" s="186"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="27">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="40.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4818,10 +4878,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="189" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O2" s="190" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P2" s="191" t="s">
         <v>10</v>
@@ -5335,7 +5395,7 @@
         <v>77</v>
       </c>
       <c r="G16" s="142" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" s="134" t="s">
         <v>183</v>
@@ -5357,7 +5417,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" s="164">
         <v>42613</v>
@@ -5366,16 +5426,16 @@
         <v>42632</v>
       </c>
       <c r="F17" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="148" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="149" t="s">
         <v>237</v>
       </c>
-      <c r="G17" s="148" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" s="149" t="s">
-        <v>238</v>
-      </c>
       <c r="I17" s="145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J17" s="150"/>
       <c r="K17" s="146">
@@ -5386,7 +5446,7 @@
       </c>
       <c r="M17" s="194"/>
       <c r="N17" s="194" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O17" s="200"/>
       <c r="P17" s="195"/>
@@ -5488,16 +5548,16 @@
         <v>42690</v>
       </c>
       <c r="F20" s="126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G20" s="148" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20" s="149" t="s">
         <v>63</v>
       </c>
       <c r="I20" s="145" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J20" s="150"/>
       <c r="K20" s="146">
@@ -5946,10 +6006,10 @@
         <v>42690</v>
       </c>
       <c r="F32" s="137" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G32" s="133" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="H32" s="97"/>
       <c r="I32" s="94"/>
@@ -5981,13 +6041,13 @@
         <v>102</v>
       </c>
       <c r="G33" s="148" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H33" s="149" t="s">
         <v>78</v>
       </c>
       <c r="I33" s="145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J33" s="150"/>
       <c r="K33" s="146">
@@ -6029,7 +6089,7 @@
         <v>78</v>
       </c>
       <c r="I34" s="145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J34" s="150"/>
       <c r="K34" s="146">
@@ -6103,7 +6163,7 @@
         <v>76</v>
       </c>
       <c r="G36" s="133" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H36" s="97" t="s">
         <v>63</v>
@@ -6463,7 +6523,7 @@
         <v>63</v>
       </c>
       <c r="I45" s="145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J45" s="150"/>
       <c r="K45" s="146">
@@ -6642,7 +6702,7 @@
         <v>109</v>
       </c>
       <c r="G50" s="133" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H50" s="124" t="s">
         <v>63</v>
@@ -6650,9 +6710,13 @@
       <c r="I50" s="130"/>
       <c r="J50" s="125"/>
       <c r="K50" s="125"/>
-      <c r="L50" s="192"/>
+      <c r="L50" s="192" t="s">
+        <v>287</v>
+      </c>
       <c r="M50" s="194"/>
-      <c r="N50" s="194"/>
+      <c r="N50" s="194" t="s">
+        <v>288</v>
+      </c>
       <c r="O50" s="193"/>
       <c r="P50" s="195"/>
       <c r="Q50" s="118"/>
@@ -6677,12 +6741,10 @@
         <v>112</v>
       </c>
       <c r="G51" s="133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H51" s="19"/>
-      <c r="I51" s="187" t="s">
-        <v>281</v>
-      </c>
+      <c r="I51" s="187"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="192" t="s">
@@ -6690,7 +6752,7 @@
       </c>
       <c r="M51" s="194"/>
       <c r="N51" s="194" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O51" s="193"/>
       <c r="P51" s="195"/>
@@ -6782,14 +6844,14 @@
         <v>42713</v>
       </c>
       <c r="F54" s="126" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G54" s="148" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H54" s="149"/>
       <c r="I54" s="145" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J54" s="150"/>
       <c r="K54" s="146">
@@ -6858,16 +6920,16 @@
         <v>42713</v>
       </c>
       <c r="F56" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56" s="152" t="s">
         <v>225</v>
-      </c>
-      <c r="G56" s="152" t="s">
-        <v>226</v>
       </c>
       <c r="H56" s="149" t="s">
         <v>63</v>
       </c>
       <c r="I56" s="145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J56" s="150"/>
       <c r="K56" s="146">
@@ -6898,16 +6960,16 @@
         <v>42713</v>
       </c>
       <c r="F57" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="G57" s="152" t="s">
         <v>228</v>
-      </c>
-      <c r="G57" s="152" t="s">
-        <v>229</v>
       </c>
       <c r="H57" s="153" t="s">
         <v>63</v>
       </c>
       <c r="I57" s="145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J57" s="150"/>
       <c r="K57" s="146">
@@ -7012,10 +7074,10 @@
         <v>42713</v>
       </c>
       <c r="F60" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" s="152" t="s">
         <v>207</v>
-      </c>
-      <c r="G60" s="152" t="s">
-        <v>208</v>
       </c>
       <c r="H60" s="153" t="s">
         <v>63</v>
@@ -7053,13 +7115,13 @@
         <v>118</v>
       </c>
       <c r="G61" s="133" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H61" s="134" t="s">
         <v>63</v>
       </c>
       <c r="I61" s="211" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J61" s="135"/>
       <c r="K61" s="135"/>
@@ -7068,7 +7130,7 @@
       </c>
       <c r="M61" s="194"/>
       <c r="N61" s="194" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O61" s="193"/>
       <c r="P61" s="195"/>
@@ -7090,10 +7152,10 @@
         <v>42713</v>
       </c>
       <c r="F62" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="152" t="s">
         <v>203</v>
-      </c>
-      <c r="G62" s="152" t="s">
-        <v>204</v>
       </c>
       <c r="H62" s="149" t="s">
         <v>63</v>
@@ -7128,10 +7190,10 @@
         <v>42713</v>
       </c>
       <c r="F63" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="152" t="s">
         <v>199</v>
-      </c>
-      <c r="G63" s="152" t="s">
-        <v>200</v>
       </c>
       <c r="H63" s="149" t="s">
         <v>63</v>
@@ -7166,10 +7228,10 @@
         <v>42713</v>
       </c>
       <c r="F64" s="147" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="G64" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="H64" s="149" t="s">
         <v>63</v>
@@ -7204,10 +7266,10 @@
         <v>42713</v>
       </c>
       <c r="F65" s="126" t="s">
+        <v>213</v>
+      </c>
+      <c r="G65" s="148" t="s">
         <v>214</v>
-      </c>
-      <c r="G65" s="148" t="s">
-        <v>215</v>
       </c>
       <c r="H65" s="149" t="s">
         <v>63</v>
@@ -7242,10 +7304,10 @@
         <v>42713</v>
       </c>
       <c r="F66" s="165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G66" s="142" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="H66" s="134" t="s">
         <v>63</v>
@@ -7253,7 +7315,9 @@
       <c r="I66" s="145"/>
       <c r="J66" s="135"/>
       <c r="K66" s="135"/>
-      <c r="L66" s="192"/>
+      <c r="L66" s="192" t="s">
+        <v>291</v>
+      </c>
       <c r="M66" s="194"/>
       <c r="N66" s="194"/>
       <c r="O66" s="193"/>
@@ -7276,10 +7340,10 @@
         <v>42713</v>
       </c>
       <c r="F67" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="G67" s="152" t="s">
         <v>218</v>
-      </c>
-      <c r="G67" s="152" t="s">
-        <v>219</v>
       </c>
       <c r="H67" s="149" t="s">
         <v>63</v>
@@ -7317,19 +7381,19 @@
         <v>115</v>
       </c>
       <c r="G68" s="133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H68" s="134"/>
-      <c r="I68" s="187" t="s">
-        <v>281</v>
-      </c>
+      <c r="I68" s="187"/>
       <c r="J68" s="135"/>
       <c r="K68" s="135"/>
       <c r="L68" s="192" t="s">
         <v>110</v>
       </c>
       <c r="M68" s="194"/>
-      <c r="N68" s="194"/>
+      <c r="N68" s="194" t="s">
+        <v>289</v>
+      </c>
       <c r="O68" s="193"/>
       <c r="P68" s="195"/>
     </row>
@@ -7350,16 +7414,16 @@
         <v>42713</v>
       </c>
       <c r="F69" s="126" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G69" s="183" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H69" s="149" t="s">
         <v>63</v>
       </c>
       <c r="I69" s="145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J69" s="150"/>
       <c r="K69" s="146">
@@ -7370,7 +7434,7 @@
       </c>
       <c r="M69" s="197"/>
       <c r="N69" s="197" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O69" s="198"/>
       <c r="P69" s="199"/>
@@ -7392,14 +7456,14 @@
         <v>42716</v>
       </c>
       <c r="F70" s="179" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G70" s="180" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H70" s="181"/>
       <c r="I70" s="145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J70" s="150"/>
       <c r="K70" s="146">
@@ -7410,7 +7474,7 @@
       </c>
       <c r="M70" s="213"/>
       <c r="N70" s="210" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O70" s="214"/>
       <c r="P70" s="212"/>
@@ -7435,16 +7499,20 @@
         <v>170</v>
       </c>
       <c r="G71" s="166" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="H71" s="134" t="s">
         <v>63</v>
       </c>
       <c r="I71" s="158"/>
       <c r="K71" s="155"/>
-      <c r="L71" s="211"/>
+      <c r="L71" s="211" t="s">
+        <v>291</v>
+      </c>
       <c r="M71" s="213"/>
-      <c r="N71" s="210"/>
+      <c r="N71" s="210" t="s">
+        <v>292</v>
+      </c>
       <c r="O71" s="214"/>
       <c r="P71" s="212"/>
     </row>
@@ -7468,16 +7536,20 @@
         <v>170</v>
       </c>
       <c r="G72" s="166" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H72" s="134" t="s">
         <v>63</v>
       </c>
       <c r="I72" s="158"/>
       <c r="K72" s="155"/>
-      <c r="L72" s="211"/>
+      <c r="L72" s="211" t="s">
+        <v>287</v>
+      </c>
       <c r="M72" s="213"/>
-      <c r="N72" s="210"/>
+      <c r="N72" s="210" t="s">
+        <v>293</v>
+      </c>
       <c r="O72" s="214"/>
       <c r="P72" s="212"/>
     </row>
@@ -7501,16 +7573,20 @@
         <v>174</v>
       </c>
       <c r="G73" s="166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H73" s="134" t="s">
         <v>63</v>
       </c>
       <c r="I73" s="158"/>
       <c r="K73" s="155"/>
-      <c r="L73" s="211"/>
+      <c r="L73" s="211" t="s">
+        <v>291</v>
+      </c>
       <c r="M73" s="213"/>
-      <c r="N73" s="210"/>
+      <c r="N73" s="210" t="s">
+        <v>294</v>
+      </c>
       <c r="O73" s="214"/>
       <c r="P73" s="212"/>
     </row>
@@ -7534,7 +7610,7 @@
         <v>174</v>
       </c>
       <c r="G74" s="166" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H74" s="134" t="s">
         <v>63</v>
@@ -7567,16 +7643,20 @@
         <v>170</v>
       </c>
       <c r="G75" s="166" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H75" s="134" t="s">
         <v>63</v>
       </c>
       <c r="I75" s="158"/>
       <c r="K75" s="155"/>
-      <c r="L75" s="211"/>
+      <c r="L75" s="211" t="s">
+        <v>291</v>
+      </c>
       <c r="M75" s="213"/>
-      <c r="N75" s="210"/>
+      <c r="N75" s="210" t="s">
+        <v>295</v>
+      </c>
       <c r="O75" s="214"/>
       <c r="P75" s="212"/>
     </row>
@@ -7597,16 +7677,16 @@
         <v>42716</v>
       </c>
       <c r="F76" s="179" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G76" s="180" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H76" s="149" t="s">
         <v>63</v>
       </c>
       <c r="I76" s="145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J76" s="150"/>
       <c r="K76" s="146">
@@ -7635,19 +7715,23 @@
         <v>42716</v>
       </c>
       <c r="F77" s="137" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G77" s="157" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="H77" s="134" t="s">
         <v>63</v>
       </c>
       <c r="I77" s="158"/>
       <c r="K77" s="155"/>
-      <c r="L77" s="211"/>
+      <c r="L77" s="211" t="s">
+        <v>291</v>
+      </c>
       <c r="M77" s="213"/>
-      <c r="N77" s="210"/>
+      <c r="N77" s="210" t="s">
+        <v>297</v>
+      </c>
       <c r="O77" s="214"/>
       <c r="P77" s="212"/>
     </row>
@@ -7655,30 +7739,34 @@
       <c r="A78" s="100">
         <v>76</v>
       </c>
-      <c r="B78" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="154" t="s">
+      <c r="B78" s="215" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="162">
+      <c r="D78" s="216">
         <v>42716</v>
       </c>
-      <c r="E78" s="156">
+      <c r="E78" s="165">
         <v>42716</v>
       </c>
       <c r="F78" s="165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G78" s="166" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H78" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="L78" s="186"/>
+      <c r="L78" s="217" t="s">
+        <v>291</v>
+      </c>
       <c r="M78" s="186"/>
-      <c r="N78" s="186"/>
+      <c r="N78" s="218" t="s">
+        <v>297</v>
+      </c>
       <c r="O78" s="186"/>
       <c r="P78" s="186"/>
     </row>
@@ -7702,14 +7790,10 @@
         <v>116</v>
       </c>
       <c r="G79" s="133" t="s">
-        <v>280</v>
-      </c>
-      <c r="I79" s="187" t="s">
-        <v>281</v>
-      </c>
-      <c r="L79" s="187" t="s">
-        <v>110</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="I79" s="187"/>
+      <c r="L79" s="187"/>
       <c r="M79" s="186"/>
       <c r="N79" s="186"/>
       <c r="O79" s="186"/>
@@ -7732,13 +7816,13 @@
         <v>42716</v>
       </c>
       <c r="F80" s="126" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G80" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I80" s="151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K80" s="185">
         <v>42731</v>
@@ -7761,10 +7845,10 @@
         <v>42717</v>
       </c>
       <c r="F81" s="137" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G81" s="106" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H81" s="6"/>
     </row>
@@ -7785,13 +7869,19 @@
         <v>42731</v>
       </c>
       <c r="F82" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="G82" s="133" t="s">
         <v>230</v>
-      </c>
-      <c r="G82" s="133" t="s">
-        <v>231</v>
       </c>
       <c r="H82" s="134" t="s">
         <v>63</v>
+      </c>
+      <c r="L82" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="N82" s="128" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="138" customFormat="1" ht="27">
@@ -7802,7 +7892,7 @@
         <v>15</v>
       </c>
       <c r="C83" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="163">
         <v>42731</v>
@@ -7811,18 +7901,22 @@
         <v>42731</v>
       </c>
       <c r="F83" s="156" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G83" s="133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H83" s="134"/>
       <c r="I83" s="130"/>
       <c r="J83" s="40"/>
       <c r="K83" s="54"/>
-      <c r="L83" s="130"/>
+      <c r="L83" s="130" t="s">
+        <v>291</v>
+      </c>
       <c r="M83" s="134"/>
-      <c r="N83" s="134"/>
+      <c r="N83" s="134" t="s">
+        <v>297</v>
+      </c>
       <c r="O83" s="54"/>
       <c r="P83" s="136"/>
     </row>
@@ -7834,7 +7928,7 @@
         <v>15</v>
       </c>
       <c r="C84" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="163">
         <v>42731</v>
@@ -7843,10 +7937,16 @@
         <v>42731</v>
       </c>
       <c r="F84" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G84" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="G84" s="173" t="s">
-        <v>245</v>
+      <c r="L84" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="128" customFormat="1" ht="27">
@@ -7857,7 +7957,7 @@
         <v>15</v>
       </c>
       <c r="C85" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D85" s="163">
         <v>42731</v>
@@ -7866,12 +7966,15 @@
         <v>42731</v>
       </c>
       <c r="F85" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G85" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="G85" s="173" t="s">
-        <v>247</v>
-      </c>
       <c r="H85" s="6"/>
+      <c r="L85" s="128" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="86" spans="1:16" s="128" customFormat="1">
       <c r="A86" s="100">
@@ -7881,7 +7984,7 @@
         <v>15</v>
       </c>
       <c r="C86" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D86" s="163">
         <v>42731</v>
@@ -7890,12 +7993,18 @@
         <v>42731</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G86" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H86" s="6"/>
+      <c r="L86" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="N86" s="128" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="87" spans="1:16" s="128" customFormat="1">
       <c r="A87" s="100">
@@ -7905,7 +8014,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D87" s="163">
         <v>42731</v>
@@ -7914,10 +8023,10 @@
         <v>42731</v>
       </c>
       <c r="F87" s="156" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G87" s="173" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H87" s="194" t="s">
         <v>63</v>
@@ -7931,7 +8040,7 @@
         <v>15</v>
       </c>
       <c r="C88" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D88" s="163">
         <v>42731</v>
@@ -7943,7 +8052,10 @@
         <v>65</v>
       </c>
       <c r="G88" s="173" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="27">
@@ -7954,7 +8066,7 @@
         <v>15</v>
       </c>
       <c r="C89" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D89" s="163">
         <v>42731</v>
@@ -7963,10 +8075,13 @@
         <v>42731</v>
       </c>
       <c r="F89" s="137" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G89" s="173" t="s">
-        <v>286</v>
+        <v>281</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="128" customFormat="1" ht="67.5">
@@ -7977,7 +8092,7 @@
         <v>15</v>
       </c>
       <c r="C90" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D90" s="163">
         <v>42731</v>
@@ -7986,10 +8101,10 @@
         <v>42731</v>
       </c>
       <c r="F90" s="165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G90" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H90" s="134" t="s">
         <v>63</v>
@@ -7997,7 +8112,9 @@
       <c r="I90" s="145"/>
       <c r="J90" s="135"/>
       <c r="K90" s="135"/>
-      <c r="L90" s="130"/>
+      <c r="L90" s="130" t="s">
+        <v>291</v>
+      </c>
       <c r="M90" s="134"/>
       <c r="N90" s="134"/>
       <c r="O90" s="131"/>
@@ -8011,7 +8128,7 @@
         <v>15</v>
       </c>
       <c r="C91" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D91" s="163">
         <v>42731</v>
@@ -8020,10 +8137,16 @@
         <v>42731</v>
       </c>
       <c r="F91" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G91" s="177" t="s">
         <v>251</v>
       </c>
-      <c r="G91" s="177" t="s">
-        <v>252</v>
+      <c r="L91" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="128" customFormat="1" ht="27">
@@ -8034,7 +8157,7 @@
         <v>15</v>
       </c>
       <c r="C92" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D92" s="163">
         <v>42731</v>
@@ -8043,12 +8166,15 @@
         <v>42731</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G92" s="173" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H92" s="6"/>
+      <c r="N92" s="128" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="93" spans="1:16" s="138" customFormat="1" ht="67.5">
       <c r="A93" s="100">
@@ -8070,7 +8196,7 @@
         <v>38</v>
       </c>
       <c r="G93" s="142" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H93" s="134" t="s">
         <v>19</v>
@@ -8104,7 +8230,7 @@
         <v>39</v>
       </c>
       <c r="G94" s="133" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H94" s="134"/>
       <c r="I94" s="130"/>
@@ -8145,7 +8271,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8160,7 +8286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8293,7 +8419,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="43"/>
@@ -9198,12 +9324,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9218,7 +9344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
